--- a/medicine/Psychotrope/Baroque_(cépage)/Baroque_(cépage).xlsx
+++ b/medicine/Psychotrope/Baroque_(cépage)/Baroque_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Baroque_(c%C3%A9page)</t>
+          <t>Baroque_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Baroque est un cépage blanc de la vigne, originaire de Gascogne[1], cultivé dans le Béarn et dans le Tursan[2].
+Le Baroque est un cépage blanc de la vigne, originaire de Gascogne, cultivé dans le Béarn et dans le Tursan.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Baroque_(c%C3%A9page)</t>
+          <t>Baroque_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux blanc à liseré carminé.
 Jeunes feuilles duveteuses, jaunâtres et bronzées sur les boselures
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Baroque_(c%C3%A9page)</t>
+          <t>Baroque_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque tardive : 20 jours après le chasselas.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Baroque_(c%C3%A9page)</t>
+          <t>Baroque_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baroque est connu sous les noms de : baroca, barroque, blanc bordelais, blanc boudalès, blanc bourdalès, bordelais, bordelais blanc, bordeleza zuria, escripet, muscadelle de Nantes (par erreur), petit bordelais, plant bordelais, sable blanc.
 </t>
